--- a/_p_ADAPTOmics/_I_Desiree/_S_multiOmics/_A_multiOmicsStat-R/reports/Desiree.logFC-transcriptomics_leaves.xlsx
+++ b/_p_ADAPTOmics/_I_Desiree/_S_multiOmics/_A_multiOmicsStat-R/reports/Desiree.logFC-transcriptomics_leaves.xlsx
@@ -425,7 +425,7 @@
     <t xml:space="preserve"> 0.721</t>
   </si>
   <si>
-    <t xml:space="preserve">M0ZJG3</t>
+    <t xml:space="preserve">MES</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.641</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">0.007</t>
   </si>
   <si>
-    <t xml:space="preserve">RD29B</t>
+    <t xml:space="preserve">RD29</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.934</t>
